--- a/public/templates/employee-import-template-complete.xlsx
+++ b/public/templates/employee-import-template-complete.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW5"/>
+  <dimension ref="A1:AX5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -452,6 +452,7 @@
     <col min="47" max="47" width="20.83203125" customWidth="1"/>
     <col min="48" max="48" width="20.83203125" customWidth="1"/>
     <col min="49" max="49" width="20.83203125" customWidth="1"/>
+    <col min="50" max="50" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -522,84 +523,87 @@
         <v>Nature du contrat*</v>
       </c>
       <c r="W1" t="str">
+        <v>Date de fin de contrat**</v>
+      </c>
+      <c r="X1" t="str">
         <v>Fréquence de paiement*</v>
       </c>
-      <c r="X1" t="str">
+      <c r="Y1" t="str">
         <v>Fonction*</v>
       </c>
-      <c r="Y1" t="str">
+      <c r="Z1" t="str">
         <v>Métier</v>
       </c>
-      <c r="Z1" t="str">
+      <c r="AA1" t="str">
         <v>Type Emploi</v>
       </c>
-      <c r="AA1" t="str">
+      <c r="AB1" t="str">
         <v>Date de sortie</v>
       </c>
-      <c r="AB1" t="str">
+      <c r="AC1" t="str">
         <v>Nature de sortie</v>
       </c>
-      <c r="AC1" t="str">
+      <c r="AD1" t="str">
         <v>Catégorie*</v>
       </c>
-      <c r="AD1" t="str">
+      <c r="AE1" t="str">
         <v>Qualification</v>
       </c>
-      <c r="AE1" t="str">
+      <c r="AF1" t="str">
         <v>Salaire Catégoriel*</v>
       </c>
-      <c r="AF1" t="str">
-        <v>Sursalaire*</v>
-      </c>
       <c r="AG1" t="str">
-        <v>Régime horaire*</v>
+        <v>Sursalaire</v>
       </c>
       <c r="AH1" t="str">
+        <v>Régime horaire**</v>
+      </c>
+      <c r="AI1" t="str">
         <v>Indemnité de transport*</v>
       </c>
-      <c r="AI1" t="str">
+      <c r="AJ1" t="str">
         <v>Regime salaire</v>
       </c>
-      <c r="AJ1" t="str">
+      <c r="AK1" t="str">
         <v>Etablissement</v>
       </c>
-      <c r="AK1" t="str">
+      <c r="AL1" t="str">
         <v>Direction</v>
       </c>
-      <c r="AL1" t="str">
+      <c r="AM1" t="str">
         <v>Département</v>
       </c>
-      <c r="AM1" t="str">
+      <c r="AN1" t="str">
         <v>Service</v>
       </c>
-      <c r="AN1" t="str">
+      <c r="AO1" t="str">
         <v>Section</v>
       </c>
-      <c r="AO1" t="str">
+      <c r="AP1" t="str">
         <v>Site de travail*</v>
       </c>
-      <c r="AP1" t="str">
+      <c r="AQ1" t="str">
         <v>Manager</v>
       </c>
-      <c r="AQ1" t="str">
-        <v>N° CNPS*</v>
-      </c>
       <c r="AR1" t="str">
+        <v>N° CNPS</v>
+      </c>
+      <c r="AS1" t="str">
         <v>N° CMU</v>
       </c>
-      <c r="AS1" t="str">
+      <c r="AT1" t="str">
         <v>Couverture Maladie</v>
       </c>
-      <c r="AT1" t="str">
+      <c r="AU1" t="str">
         <v>Date début couverture</v>
       </c>
-      <c r="AU1" t="str">
+      <c r="AV1" t="str">
         <v>Banque</v>
       </c>
-      <c r="AV1" t="str">
+      <c r="AW1" t="str">
         <v>RIB</v>
       </c>
-      <c r="AW1" t="str">
+      <c r="AX1" t="str">
         <v>Solde congés initial</v>
       </c>
     </row>
@@ -671,84 +675,87 @@
         <v>CDI/CDD/CDDTI/INTERIM/STAGE</v>
       </c>
       <c r="W2" t="str">
-        <v>MONTHLY/WEEKLY/BIWEEKLY/DAILY</v>
+        <v>JJ/MM/AAAA - Requis pour CDD/CDDTI</v>
       </c>
       <c r="X2" t="str">
+        <v>Mensuelle/Hebdomadaire/Bimensuelle/Journalière</v>
+      </c>
+      <c r="Y2" t="str">
         <v>Ex: Responsable RH</v>
       </c>
-      <c r="Y2" t="str">
+      <c r="Z2" t="str">
         <v>Ex: Ressources Humaines</v>
       </c>
-      <c r="Z2" t="str">
+      <c r="AA2" t="str">
         <v>Temps plein/Temps partiel/Occasionnel</v>
       </c>
-      <c r="AA2" t="str">
+      <c r="AB2" t="str">
         <v>JJ/MM/AAAA - si applicable</v>
       </c>
-      <c r="AB2" t="str">
+      <c r="AC2" t="str">
         <v>Démission/Licenciement/Fin CDD/Retraite</v>
       </c>
-      <c r="AC2" t="str">
+      <c r="AD2" t="str">
         <v>Ex: C, M1, 1A, 2B - voir barème CGECI</v>
       </c>
-      <c r="AD2" t="str">
+      <c r="AE2" t="str">
         <v>Ex: Cadre supérieur, Agent de maîtrise</v>
       </c>
-      <c r="AE2" t="str">
+      <c r="AF2" t="str">
         <v>Ex: 150000 - REQUIS pour la paie</v>
       </c>
-      <c r="AF2" t="str">
-        <v>Ex: 50000 (0 si aucun)</v>
-      </c>
       <c r="AG2" t="str">
-        <v>Ex: 40 (heures/semaine). Valeurs courantes: 35, 39, 40, 45, 48</v>
+        <v>Ex: 50000 (0 si aucun) - Optionnel</v>
       </c>
       <c r="AH2" t="str">
+        <v>Ex: 40 (heures/semaine) - Requis pour CDDTI</v>
+      </c>
+      <c r="AI2" t="str">
         <v>Ex: 35000 - Minimum: Abidjan 30k, Bouaké 24k, Autres 20k</v>
       </c>
-      <c r="AI2" t="str">
+      <c r="AJ2" t="str">
         <v>Mensuel/Journalier/Horaire</v>
       </c>
-      <c r="AJ2" t="str">
+      <c r="AK2" t="str">
         <v>Ex: Siège social</v>
       </c>
-      <c r="AK2" t="str">
+      <c r="AL2" t="str">
         <v>Ex: Direction Générale</v>
       </c>
-      <c r="AL2" t="str">
+      <c r="AM2" t="str">
         <v>Ex: Ressources Humaines</v>
       </c>
-      <c r="AM2" t="str">
+      <c r="AN2" t="str">
         <v>Ex: Paie et Administration</v>
       </c>
-      <c r="AN2" t="str">
+      <c r="AO2" t="str">
         <v>Ex: Section Paie</v>
       </c>
-      <c r="AO2" t="str">
+      <c r="AP2" t="str">
         <v>Ex: Abidjan Plateau</v>
       </c>
-      <c r="AP2" t="str">
+      <c r="AQ2" t="str">
         <v>Matricule du manager, Ex: EMP000</v>
       </c>
-      <c r="AQ2" t="str">
-        <v>Ex: 1234567</v>
-      </c>
       <c r="AR2" t="str">
+        <v>Ex: 1234567 - Optionnel</v>
+      </c>
+      <c r="AS2" t="str">
         <v>Ex: CMU123456 - Requis si Couverture = CMU</v>
       </c>
-      <c r="AS2" t="str">
+      <c r="AT2" t="str">
         <v>Aucune/CMU/Assurance privée/[Nom assureur]</v>
       </c>
-      <c r="AT2" t="str">
+      <c r="AU2" t="str">
         <v>JJ/MM/AAAA - Défaut: date d'embauche</v>
       </c>
-      <c r="AU2" t="str">
+      <c r="AV2" t="str">
         <v>Ex: SGBCI, Ecobank, NSIA</v>
       </c>
-      <c r="AV2" t="str">
+      <c r="AW2" t="str">
         <v>Ex: CI93 CI000 01234 56789 01234 567 89</v>
       </c>
-      <c r="AW2" t="str">
+      <c r="AX2" t="str">
         <v>Ex: 2.5 - jours acquis à l'embauche</v>
       </c>
     </row>
@@ -820,53 +827,53 @@
         <v>CDI</v>
       </c>
       <c r="W3" t="str">
-        <v>MONTHLY</v>
+        <v/>
       </c>
       <c r="X3" t="str">
+        <v>Mensuelle</v>
+      </c>
+      <c r="Y3" t="str">
         <v>Directeur Général</v>
       </c>
-      <c r="Y3" t="str">
+      <c r="Z3" t="str">
         <v>Direction Générale</v>
       </c>
-      <c r="Z3" t="str">
+      <c r="AA3" t="str">
         <v>Temps plein</v>
       </c>
-      <c r="AA3" t="str">
-        <v/>
-      </c>
       <c r="AB3" t="str">
         <v/>
       </c>
       <c r="AC3" t="str">
+        <v/>
+      </c>
+      <c r="AD3" t="str">
         <v>C</v>
       </c>
-      <c r="AD3" t="str">
+      <c r="AE3" t="str">
         <v>Cadre supérieur</v>
       </c>
-      <c r="AE3" t="str">
+      <c r="AF3" t="str">
         <v>500000</v>
       </c>
-      <c r="AF3" t="str">
+      <c r="AG3" t="str">
         <v>200000</v>
       </c>
-      <c r="AG3" t="str">
+      <c r="AH3" t="str">
         <v>40</v>
       </c>
-      <c r="AH3" t="str">
+      <c r="AI3" t="str">
         <v>30000</v>
       </c>
-      <c r="AI3" t="str">
+      <c r="AJ3" t="str">
         <v>Mensuel</v>
       </c>
-      <c r="AJ3" t="str">
+      <c r="AK3" t="str">
         <v>Siège social</v>
       </c>
-      <c r="AK3" t="str">
+      <c r="AL3" t="str">
         <v>Direction Générale</v>
       </c>
-      <c r="AL3" t="str">
-        <v/>
-      </c>
       <c r="AM3" t="str">
         <v/>
       </c>
@@ -874,30 +881,33 @@
         <v/>
       </c>
       <c r="AO3" t="str">
+        <v/>
+      </c>
+      <c r="AP3" t="str">
         <v>Abidjan Plateau</v>
       </c>
-      <c r="AP3" t="str">
-        <v/>
-      </c>
       <c r="AQ3" t="str">
+        <v/>
+      </c>
+      <c r="AR3" t="str">
         <v>1234567</v>
       </c>
-      <c r="AR3" t="str">
+      <c r="AS3" t="str">
         <v>CMU123456</v>
       </c>
-      <c r="AS3" t="str">
+      <c r="AT3" t="str">
         <v>NSIA Assurances</v>
       </c>
-      <c r="AT3" t="str">
+      <c r="AU3" t="str">
         <v>01/01/2020</v>
       </c>
-      <c r="AU3" t="str">
+      <c r="AV3" t="str">
         <v>SGBCI</v>
       </c>
-      <c r="AV3" t="str">
+      <c r="AW3" t="str">
         <v>CI93 CI000 01234 56789 01234 567 89</v>
       </c>
-      <c r="AW3" t="str">
+      <c r="AX3" t="str">
         <v>0</v>
       </c>
     </row>
@@ -969,84 +979,87 @@
         <v>CDD</v>
       </c>
       <c r="W4" t="str">
-        <v>MONTHLY</v>
+        <v>31/12/2024</v>
       </c>
       <c r="X4" t="str">
+        <v>Mensuelle</v>
+      </c>
+      <c r="Y4" t="str">
         <v>Assistante Administrative</v>
       </c>
-      <c r="Y4" t="str">
+      <c r="Z4" t="str">
         <v>Administration</v>
       </c>
-      <c r="Z4" t="str">
+      <c r="AA4" t="str">
         <v>Temps plein</v>
       </c>
-      <c r="AA4" t="str">
-        <v>31/12/2024</v>
-      </c>
       <c r="AB4" t="str">
-        <v>Fin CDD</v>
+        <v/>
       </c>
       <c r="AC4" t="str">
+        <v/>
+      </c>
+      <c r="AD4" t="str">
         <v>2A</v>
       </c>
-      <c r="AD4" t="str">
+      <c r="AE4" t="str">
         <v>Employé qualifié</v>
       </c>
-      <c r="AE4" t="str">
+      <c r="AF4" t="str">
         <v>120000</v>
       </c>
-      <c r="AF4" t="str">
+      <c r="AG4" t="str">
         <v>30000</v>
       </c>
-      <c r="AG4" t="str">
+      <c r="AH4" t="str">
         <v>40</v>
       </c>
-      <c r="AH4" t="str">
+      <c r="AI4" t="str">
         <v>30000</v>
       </c>
-      <c r="AI4" t="str">
+      <c r="AJ4" t="str">
         <v>Mensuel</v>
       </c>
-      <c r="AJ4" t="str">
+      <c r="AK4" t="str">
         <v>Siège social</v>
       </c>
-      <c r="AK4" t="str">
+      <c r="AL4" t="str">
         <v>Direction Administrative</v>
       </c>
-      <c r="AL4" t="str">
+      <c r="AM4" t="str">
         <v>Administration</v>
       </c>
-      <c r="AM4" t="str">
+      <c r="AN4" t="str">
         <v>Secrétariat</v>
       </c>
-      <c r="AN4" t="str">
-        <v/>
-      </c>
       <c r="AO4" t="str">
+        <v/>
+      </c>
+      <c r="AP4" t="str">
         <v>Abidjan Marcory</v>
       </c>
-      <c r="AP4" t="str">
+      <c r="AQ4" t="str">
         <v>EMP001</v>
       </c>
-      <c r="AQ4" t="str">
+      <c r="AR4" t="str">
         <v>2345678</v>
       </c>
-      <c r="AR4" t="str">
+      <c r="AS4" t="str">
         <v>CMU234567</v>
       </c>
-      <c r="AS4" t="str">
+      <c r="AT4" t="str">
         <v>CMU</v>
       </c>
-      <c r="AT4" t="str">
+      <c r="AU4" t="str">
         <v>15/06/2023</v>
       </c>
-      <c r="AU4" t="str">
+      <c r="AV4" t="str">
         <v>Ecobank</v>
       </c>
-      <c r="AV4" t="str">
+      <c r="AW4" t="str">
         <v>CI93 EC001 98765 43210 98765 432 10</v>
       </c>
-      <c r="AW4" t="str">
+      <c r="AX4" t="str">
         <v>0</v>
       </c>
     </row>
@@ -1118,97 +1131,100 @@
         <v>CDI</v>
       </c>
       <c r="W5" t="str">
-        <v>MONTHLY</v>
+        <v/>
       </c>
       <c r="X5" t="str">
+        <v>Mensuelle</v>
+      </c>
+      <c r="Y5" t="str">
         <v>Directeur Financier</v>
       </c>
-      <c r="Y5" t="str">
+      <c r="Z5" t="str">
         <v>Finance et Comptabilité</v>
       </c>
-      <c r="Z5" t="str">
+      <c r="AA5" t="str">
         <v>Temps plein</v>
       </c>
-      <c r="AA5" t="str">
-        <v/>
-      </c>
       <c r="AB5" t="str">
         <v/>
       </c>
       <c r="AC5" t="str">
+        <v/>
+      </c>
+      <c r="AD5" t="str">
         <v>C</v>
       </c>
-      <c r="AD5" t="str">
+      <c r="AE5" t="str">
         <v>Cadre supérieur</v>
       </c>
-      <c r="AE5" t="str">
+      <c r="AF5" t="str">
         <v>600000</v>
       </c>
-      <c r="AF5" t="str">
+      <c r="AG5" t="str">
         <v>300000</v>
       </c>
-      <c r="AG5" t="str">
+      <c r="AH5" t="str">
         <v>40</v>
       </c>
-      <c r="AH5" t="str">
+      <c r="AI5" t="str">
         <v>40000</v>
       </c>
-      <c r="AI5" t="str">
+      <c r="AJ5" t="str">
         <v>Mensuel</v>
       </c>
-      <c r="AJ5" t="str">
+      <c r="AK5" t="str">
         <v>Siège social</v>
       </c>
-      <c r="AK5" t="str">
+      <c r="AL5" t="str">
         <v>Direction Financière</v>
       </c>
-      <c r="AL5" t="str">
+      <c r="AM5" t="str">
         <v>Comptabilité</v>
       </c>
-      <c r="AM5" t="str">
+      <c r="AN5" t="str">
         <v>Contrôle de gestion</v>
       </c>
-      <c r="AN5" t="str">
-        <v/>
-      </c>
       <c r="AO5" t="str">
+        <v/>
+      </c>
+      <c r="AP5" t="str">
         <v>Abidjan Plateau</v>
       </c>
-      <c r="AP5" t="str">
+      <c r="AQ5" t="str">
         <v>EMP001</v>
       </c>
-      <c r="AQ5" t="str">
+      <c r="AR5" t="str">
         <v>3456789</v>
       </c>
-      <c r="AR5" t="str">
+      <c r="AS5" t="str">
         <v>CMU345678</v>
       </c>
-      <c r="AS5" t="str">
+      <c r="AT5" t="str">
         <v>Assurance privée</v>
       </c>
-      <c r="AT5" t="str">
+      <c r="AU5" t="str">
         <v>01/09/2019</v>
       </c>
-      <c r="AU5" t="str">
+      <c r="AV5" t="str">
         <v>NSIA</v>
       </c>
-      <c r="AV5" t="str">
+      <c r="AW5" t="str">
         <v>CI93 NS002 11111 22222 33333 444 55</v>
       </c>
-      <c r="AW5" t="str">
+      <c r="AX5" t="str">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AW5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AX5"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A67"/>
+  <dimension ref="A1:A74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1283,7 +1299,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v xml:space="preserve">  • Fréquence de paiement - MONTHLY, WEEKLY, BIWEEKLY, ou DAILY</v>
+        <v xml:space="preserve">  • Fréquence de paiement - Mensuelle, Hebdomadaire, Bimensuelle, ou Journalière</v>
       </c>
     </row>
     <row r="15">
@@ -1298,127 +1314,127 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v xml:space="preserve">  • N° CNPS - Numéro de sécurité sociale</v>
+        <v xml:space="preserve">  • Salaire Catégoriel - Salaire de base REQUIS pour la paie</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v xml:space="preserve">  • Salaire Catégoriel - Salaire de base REQUIS pour la paie</v>
+        <v xml:space="preserve">  • Indemnité de transport - Minimum 20k (autres), 24k (Bouaké), 30k (Abidjan)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v xml:space="preserve">  • Indemnité de transport - Minimum 20k (autres), 24k (Bouaké), 30k (Abidjan)</v>
+        <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v/>
+        <v>📋 Champs conditionnels (marqués avec **)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>✅ Champs recommandés</v>
+        <v xml:space="preserve">  • Date de fin de contrat** - REQUIS pour les contrats CDD et CDDTI</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v xml:space="preserve">  • N° CMU - Requis si l'employé a une couverture CMU</v>
+        <v xml:space="preserve">  • Régime horaire** - REQUIS pour les contrats CDDTI (tâche définie)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v xml:space="preserve">  • Couverture Maladie - Type d'assurance santé (CMU, assurance privée, ou nom de l'assureur)</v>
+        <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v xml:space="preserve">  • Date début couverture - Date d'effet de l'assurance (sinon date d'embauche)</v>
+        <v>📝 Champs optionnels</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v xml:space="preserve">  • Zone Nationalité - Pour les statistiques (LOCAL/CEDEAO/HORS_CEDEAO)</v>
+        <v xml:space="preserve">  • N° CNPS - Numéro de sécurité sociale (peut être ajouté plus tard)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v xml:space="preserve">  • Lieu de naissance - Requis pour certains documents officiels</v>
+        <v xml:space="preserve">  • Sursalaire - Prime salariale (0 si aucun)</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v xml:space="preserve">  • Noms des parents - Requis pour le registre du personnel</v>
+        <v/>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v xml:space="preserve">  • Contact urgence - Important en cas d'accident</v>
+        <v>✅ Champs recommandés</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v xml:space="preserve">  • Banque et RIB - Pour les virements de salaire</v>
+        <v xml:space="preserve">  • N° CMU - Requis si l'employé a une couverture CMU</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v/>
+        <v xml:space="preserve">  • Couverture Maladie - Type d'assurance santé (CMU, assurance privée, ou nom de l'assureur)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>📅 Format des dates</v>
+        <v xml:space="preserve">  • Date début couverture - Date d'effet de l'assurance (sinon date d'embauche)</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v xml:space="preserve">  • Utilisez le format JJ/MM/AAAA</v>
+        <v xml:space="preserve">  • Zone Nationalité - Pour les statistiques (LOCAL/CEDEAO/HORS_CEDEAO)</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v xml:space="preserve">  • Exemples: 01/01/2020, 15/06/2023, 31/12/2024</v>
+        <v xml:space="preserve">  • Lieu de naissance - Requis pour certains documents officiels</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v xml:space="preserve">  • Assurez-vous que la cellule est au format "Texte" ou "Date"</v>
+        <v xml:space="preserve">  • Noms des parents - Requis pour le registre du personnel</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v/>
+        <v xml:space="preserve">  • Contact urgence - Important en cas d'accident</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>🔢 Catégories professionnelles</v>
+        <v xml:space="preserve">  • Banque et RIB - Pour les virements de salaire</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v xml:space="preserve">  • C = Cadre (coefficient ≥ 1000)</v>
+        <v/>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v xml:space="preserve">  • M1 = Maîtrise niveau 1 (coefficient 700-999)</v>
+        <v>📅 Format des dates</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v xml:space="preserve">  • M2 = Maîtrise niveau 2 (coefficient 500-699)</v>
+        <v xml:space="preserve">  • Utilisez le format JJ/MM/AAAA</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v xml:space="preserve">  • 1A, 1B, 2A, 2B, etc. = Employés et ouvriers</v>
+        <v xml:space="preserve">  • Exemples: 01/01/2020, 15/06/2023, 31/12/2024</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v xml:space="preserve">  • Voir le barème CGECI 2023 pour plus de détails</v>
+        <v xml:space="preserve">  • Assurez-vous que la cellule est au format "Texte" ou "Date"</v>
       </c>
     </row>
     <row r="42">
@@ -1428,132 +1444,167 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>⚠️ Erreurs courantes à éviter</v>
+        <v>🔢 Catégories professionnelles</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v xml:space="preserve">  • Matricules en double - Chaque employé doit avoir un matricule unique</v>
+        <v xml:space="preserve">  • C = Cadre (coefficient ≥ 1000)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v xml:space="preserve">  • Dates invalides - Vérifiez le format JJ/MM/AAAA</v>
+        <v xml:space="preserve">  • M1 = Maîtrise niveau 1 (coefficient 700-999)</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v xml:space="preserve">  • Manager inexistant - Le matricule du manager doit exister dans la liste</v>
+        <v xml:space="preserve">  • M2 = Maîtrise niveau 2 (coefficient 500-699)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v xml:space="preserve">  • N° CNPS invalide - Doit contenir 7 à 10 chiffres</v>
+        <v xml:space="preserve">  • 1A, 1B, 2A, 2B, etc. = Employés et ouvriers</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v xml:space="preserve">  • Email invalide - Doit contenir @ et un domaine</v>
+        <v xml:space="preserve">  • Voir le barème CGECI 2023 pour plus de détails</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v xml:space="preserve">  • RIB invalide - Format: CI93 suivi de 26-30 caractères</v>
+        <v/>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v/>
+        <v>⚠️ Erreurs courantes à éviter</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>💡 Conseils</v>
+        <v xml:space="preserve">  • Matricules en double - Chaque employé doit avoir un matricule unique</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v xml:space="preserve">  • Commencez par les 3 exemples fournis pour comprendre le format</v>
+        <v xml:space="preserve">  • Dates invalides - Vérifiez le format JJ/MM/AAAA</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v xml:space="preserve">  • Remplissez d'abord les champs obligatoires (*)</v>
+        <v xml:space="preserve">  • Manager inexistant - Le matricule du manager doit exister dans la liste</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v xml:space="preserve">  • Ajoutez les champs recommandés pour une meilleure conformité</v>
+        <v xml:space="preserve">  • N° CNPS invalide - Doit contenir 7 à 10 chiffres</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v xml:space="preserve">  • Laissez les cellules vides si vous n'avez pas l'information</v>
+        <v xml:space="preserve">  • Email invalide - Doit contenir @ et un domaine</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v xml:space="preserve">  • Vous pourrez toujours compléter les informations plus tard</v>
+        <v xml:space="preserve">  • RIB invalide - Format: CI93 suivi de 26-30 caractères</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v xml:space="preserve">  • Indemnité de transport: minimums légaux 20k (autres villes), 24k (Bouaké), 30k (Abidjan). Vous pouvez saisir un montant supérieur.</v>
+        <v/>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v/>
+        <v>💡 Conseils</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>🆘 Besoin d'aide?</v>
+        <v xml:space="preserve">  • Commencez par les 3 exemples fournis pour comprendre le format</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v xml:space="preserve">  • Si vous rencontrez des difficultés, choisissez l'assistance WhatsApp</v>
+        <v xml:space="preserve">  • Remplissez d'abord les champs obligatoires (*)</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v xml:space="preserve">  • Notre équipe vous aidera à préparer et importer vos données</v>
+        <v xml:space="preserve">  • Ajoutez les champs recommandés pour une meilleure conformité</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v xml:space="preserve">  • Service gratuit pendant votre période d'essai</v>
+        <v xml:space="preserve">  • Laissez les cellules vides si vous n'avez pas l'information</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v xml:space="preserve">  • Contact: +225 07 08 78 68 28</v>
+        <v xml:space="preserve">  • Vous pourrez toujours compléter les informations plus tard</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v/>
+        <v xml:space="preserve">  • Indemnité de transport: minimums légaux 20k (autres villes), 24k (Bouaké), 30k (Abidjan). Vous pouvez saisir un montant supérieur.</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>💡 Trop de champs?</v>
+        <v/>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v xml:space="preserve">  • Téléchargez le "Modèle Minimal" (18 champs obligatoires) pour démarrer rapidement</v>
+        <v>🆘 Besoin d'aide?</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
+        <v xml:space="preserve">  • Si vous rencontrez des difficultés, choisissez l'assistance WhatsApp</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v xml:space="preserve">  • Notre équipe vous aidera à préparer et importer vos données</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v xml:space="preserve">  • Service gratuit pendant votre période d'essai</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v xml:space="preserve">  • Contact: +225 07 08 78 68 28</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>💡 Trop de champs?</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v xml:space="preserve">  • Téléchargez le "Modèle Minimal" (18 champs obligatoires) pour démarrer rapidement</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
         <v xml:space="preserve">  • Laissez les cellules vides si vous n'avez pas encore l'information</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A67"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A74"/>
   </ignoredErrors>
 </worksheet>
 </file>